--- a/data/6.data-collection/3.issues/follow-up survey-10.17.xlsx
+++ b/data/6.data-collection/3.issues/follow-up survey-10.17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\data\6.data-collection\3.issues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A663B6-E5D6-42E2-88A8-70628AFAD1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF261CBC-7AEC-4E50-84F0-E1091F4CA1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{85BCBE8C-2ABF-4C14-853D-0473F2D9E256}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="20370" xr2:uid="{85BCBE8C-2ABF-4C14-853D-0473F2D9E256}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="353">
   <si>
     <t>First Name</t>
   </si>
@@ -916,12 +916,199 @@
   <si>
     <t>This likely happened becuase the interview was left unactive by more than 15 minutes. A new link has been created and an invitation has been sent</t>
   </si>
+  <si>
+    <t xml:space="preserve">luis </t>
+  </si>
+  <si>
+    <t>agulles pedrós</t>
+  </si>
+  <si>
+    <t>associated to Spain but he is CP of the RLA 6091 for Colombia. He replied anyway to the survey for Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma </t>
+  </si>
+  <si>
+    <t>Castro Gamero</t>
+  </si>
+  <si>
+    <t>ecastro@ipen.gob.pe</t>
+  </si>
+  <si>
+    <t>link expired, informed to use the latest link received</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Genise</t>
+  </si>
+  <si>
+    <t>Pascal-Ferrer Iglesias</t>
+  </si>
+  <si>
+    <t>pascalgenise@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chammakhi </t>
+  </si>
+  <si>
+    <t>Chiraz</t>
+  </si>
+  <si>
+    <t>Chammakhichiraz@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montaser H. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdelhady </t>
+  </si>
+  <si>
+    <t>associated to Egypt but should be associated to Qatar where he works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fayad </t>
+  </si>
+  <si>
+    <t>HFayad1@hamad.qa</t>
+  </si>
+  <si>
+    <t>associated to France but should be associated to Qatar where he works</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lital </t>
+  </si>
+  <si>
+    <t>Keinan Boker</t>
+  </si>
+  <si>
+    <t>lital.keinan2@moh.gov.il</t>
+  </si>
+  <si>
+    <t>Declares not involved at all. Replied asking to indicate contacts who would have been if any; they indicated: Mr. Yoram Tal from the Ministry of health;
+His email address is Yoram.tal@moh.gov.il</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baburam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">marasini </t>
+  </si>
+  <si>
+    <t>marasini2@yahoo.com</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasir </t>
+  </si>
+  <si>
+    <t>Elhag</t>
+  </si>
+  <si>
+    <t>dryasirelhag@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obeng </t>
+  </si>
+  <si>
+    <t>pkobeng@hotmail.com</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Sayeed</t>
+  </si>
+  <si>
+    <t>Hossain</t>
+  </si>
+  <si>
+    <t>drsayeedhossain@yahoo.com</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Muhammad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shahzad</t>
+  </si>
+  <si>
+    <t>IC3022@outlook.com</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>weldetsion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mussie </t>
+  </si>
+  <si>
+    <t>mussiemesg@gmail.com</t>
+  </si>
+  <si>
+    <t>poor internet connection does not allow to take the survey at all</t>
+  </si>
+  <si>
+    <t>Mpho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sivhada </t>
+  </si>
+  <si>
+    <t>drmphos1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TIMOTHEE </t>
+  </si>
+  <si>
+    <t>MOBIMA</t>
+  </si>
+  <si>
+    <t>docmobima5@gmail.com</t>
+  </si>
+  <si>
+    <t>link expired, informed to use the latest link received BUT still does't work</t>
+  </si>
+  <si>
+    <t>Name and email changed in the sample. New link has been created and a new invitation was sent</t>
+  </si>
+  <si>
+    <t>From the 1,500 respondents, this one is the only one reporting issues with the internet connection. The problem, I assume, must be from their side</t>
+  </si>
+  <si>
+    <t>ok, I'll change it to Colombia so it is aligned in the responses</t>
+  </si>
+  <si>
+    <t>lagullespedros@gmail.com</t>
+  </si>
+  <si>
+    <t>dr.mohamednma@gmail.com</t>
+  </si>
+  <si>
+    <t>Changed the country in the sample. A new link has been created and new invitation sent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -997,8 +1184,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1014,12 +1207,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,7 +1310,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1149,45 +1336,57 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1504,11 +1703,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D092FD3A-5C97-444C-B65D-8374D984F27E}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L65" sqref="L65:L76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,7 +2598,7 @@
         <v>135</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>136</v>
       </c>
       <c r="G28" s="10" t="s">
@@ -2431,7 +2630,7 @@
         <v>139</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>140</v>
       </c>
       <c r="G29" s="10" t="s">
@@ -2514,24 +2713,26 @@
       </c>
     </row>
     <row r="32" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
         <v>45223</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="10" t="s">
         <v>148</v>
       </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H32" s="10"/>
       <c r="K32" s="7" t="b">
         <v>1</v>
       </c>
@@ -2540,24 +2741,26 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+      <c r="A33" s="10">
         <v>45223</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="E33" s="10"/>
       <c r="F33" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H33" s="10"/>
       <c r="K33" s="7" t="b">
         <v>1</v>
       </c>
@@ -2566,24 +2769,26 @@
       </c>
     </row>
     <row r="34" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+      <c r="A34" s="10">
         <v>45223</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="E34" s="10"/>
       <c r="F34" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H34" s="10"/>
       <c r="K34" s="7" t="b">
         <v>1</v>
       </c>
@@ -2592,24 +2797,26 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+      <c r="A35" s="10">
         <v>45223</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="10" t="s">
         <v>160</v>
       </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H35" s="10"/>
       <c r="K35" s="7" t="b">
         <v>1</v>
       </c>
@@ -2618,24 +2825,26 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="10">
         <v>45224</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="10" t="s">
         <v>164</v>
       </c>
+      <c r="E36" s="10"/>
       <c r="F36" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H36" s="10"/>
       <c r="K36" s="7" t="b">
         <v>1</v>
       </c>
@@ -2644,24 +2853,26 @@
       </c>
     </row>
     <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+      <c r="A37" s="10">
         <v>45224</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="10" t="s">
         <v>168</v>
       </c>
+      <c r="E37" s="10"/>
       <c r="F37" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H37" s="10"/>
       <c r="K37" s="7" t="b">
         <v>1</v>
       </c>
@@ -2670,21 +2881,24 @@
       </c>
     </row>
     <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+      <c r="A38" s="10">
         <v>45224</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="E38" s="10"/>
       <c r="F38" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H38" s="10"/>
       <c r="K38" s="7" t="b">
         <v>1</v>
       </c>
@@ -2693,21 +2907,24 @@
       </c>
     </row>
     <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
+      <c r="A39" s="10">
         <v>45224</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="10" t="s">
         <v>174</v>
       </c>
+      <c r="E39" s="10"/>
       <c r="F39" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="10" t="s">
         <v>129</v>
       </c>
+      <c r="H39" s="10"/>
       <c r="K39" s="7" t="b">
         <v>1</v>
       </c>
@@ -2716,707 +2933,1161 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="48">
+      <c r="A40" s="32">
         <v>45224</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26" t="s">
+      <c r="E40" s="33"/>
+      <c r="F40" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="H40" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="31"/>
-      <c r="K40" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" s="25" t="b">
+      <c r="H40" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="K40" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="48">
+      <c r="A41" s="32">
         <v>45224</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="29" t="s">
+      <c r="E41" s="33"/>
+      <c r="F41" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="H41" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="31" t="s">
+      <c r="H41" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="K41" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" s="25" t="b">
+      <c r="K41" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="48">
+      <c r="A42" s="32">
         <v>45225</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="30" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="D42" s="31" t="s">
+      <c r="D42" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26" t="s">
+      <c r="E42" s="33"/>
+      <c r="F42" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="H42" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" s="31" t="s">
+      <c r="H42" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="K42" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" s="25" t="b">
+      <c r="K42" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="48">
+      <c r="A43" s="32">
         <v>45225</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="32" t="s">
+      <c r="E43" s="33"/>
+      <c r="F43" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="G43" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="H43" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="31" t="s">
+      <c r="H43" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="K43" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" s="25" t="b">
+      <c r="K43" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="48">
+      <c r="A44" s="32">
         <v>45225</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26" t="s">
+      <c r="E44" s="33"/>
+      <c r="F44" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="G44" s="44" t="s">
+      <c r="G44" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="H44" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="31" t="s">
+      <c r="H44" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="K44" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" s="25" t="b">
+      <c r="K44" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="48">
+      <c r="A45" s="32">
         <v>45225</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="32" t="s">
+      <c r="E45" s="33"/>
+      <c r="F45" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G45" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="H45" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="31"/>
-      <c r="K45" s="25" t="b">
+      <c r="H45" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="25"/>
+      <c r="K45" s="24" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="48">
+      <c r="A46" s="32">
         <v>45225</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26" t="s">
+      <c r="E46" s="33"/>
+      <c r="F46" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H46" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="31" t="s">
+      <c r="H46" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="K46" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" s="51" t="b">
+      <c r="K46" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" s="31" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="48">
+      <c r="A47" s="32">
         <v>45225</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26" t="s">
+      <c r="E47" s="33"/>
+      <c r="F47" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H47" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="31" t="s">
+      <c r="H47" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="K47" s="45" t="b">
+      <c r="K47" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="L47" s="45" t="b">
+      <c r="L47" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="48">
+      <c r="A48" s="32">
         <v>45225</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26" t="s">
+      <c r="E48" s="33"/>
+      <c r="F48" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" s="31" t="s">
+      <c r="H48" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="K48" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" s="45" t="b">
+      <c r="K48" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" s="28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="48">
+      <c r="A49" s="32">
         <v>45225</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="33"/>
+      <c r="C49" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26" t="s">
+      <c r="E49" s="33"/>
+      <c r="F49" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="H49" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" s="31" t="s">
+      <c r="H49" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="K49" s="45" t="b">
+      <c r="K49" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="L49" s="45" t="b">
+      <c r="L49" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="48">
+      <c r="A50" s="32">
         <v>45225</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="E50" s="26"/>
-      <c r="F50" s="32" t="s">
+      <c r="E50" s="33"/>
+      <c r="F50" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="G50" s="46" t="s">
+      <c r="G50" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="H50" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="31" t="s">
+      <c r="H50" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="K50" s="45" t="b">
+      <c r="K50" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="L50" s="45" t="b">
+      <c r="L50" s="28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="48">
+      <c r="A51" s="32">
         <v>45225</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26" t="s">
+      <c r="E51" s="33"/>
+      <c r="F51" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="H51" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" s="31" t="s">
+      <c r="H51" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="K51" s="45" t="b">
+      <c r="K51" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="L51" s="45" t="b">
+      <c r="L51" s="28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="48">
+      <c r="A52" s="32">
         <v>45225</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26" t="s">
+      <c r="E52" s="33"/>
+      <c r="F52" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="H52" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" s="31" t="s">
+      <c r="H52" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="K52" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" s="45" t="b">
+      <c r="K52" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" s="28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="48">
+      <c r="A53" s="32">
         <v>45225</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26" t="s">
+      <c r="E53" s="33"/>
+      <c r="F53" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="H53" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53" s="31" t="s">
+      <c r="H53" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="K53" s="45" t="b">
+      <c r="K53" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="L53" s="45" t="b">
+      <c r="L53" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="48">
+      <c r="A54" s="32">
         <v>45225</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26" t="s">
+      <c r="B54" s="33"/>
+      <c r="C54" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="E54" s="26"/>
-      <c r="F54" s="32" t="s">
+      <c r="E54" s="33"/>
+      <c r="F54" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="G54" s="36" t="s">
+      <c r="G54" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="H54" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I54" s="31" t="s">
+      <c r="H54" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="K54" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" s="45" t="b">
+      <c r="K54" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" s="28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="49">
+      <c r="A55" s="42">
         <v>45225</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="41" t="s">
+      <c r="E55" s="43"/>
+      <c r="F55" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="G55" s="39" t="s">
+      <c r="G55" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="H55" s="42" t="s">
+      <c r="H55" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="I55" s="43"/>
-      <c r="K55" s="45" t="b">
+      <c r="I55" s="27"/>
+      <c r="K55" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="L55" s="45" t="b">
+      <c r="L55" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="48">
+      <c r="A56" s="32">
         <v>45225</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="33" t="s">
         <v>252</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26" t="s">
+      <c r="E56" s="33"/>
+      <c r="F56" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="47" t="s">
         <v>255</v>
       </c>
-      <c r="H56" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I56" s="31" t="s">
+      <c r="H56" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="K56" s="45" t="b">
+      <c r="K56" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="L56" s="45" t="b">
+      <c r="L56" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="48">
+      <c r="A57" s="32">
         <v>45225</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="32" t="s">
+      <c r="E57" s="33"/>
+      <c r="F57" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="H57" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I57" s="31" t="s">
+      <c r="H57" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="K57" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" s="45" t="b">
+      <c r="K57" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" s="28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="48">
+      <c r="A58" s="32">
         <v>45225</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="E58" s="26"/>
-      <c r="F58" s="32" t="s">
+      <c r="E58" s="33"/>
+      <c r="F58" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G58" s="37" t="s">
+      <c r="G58" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="H58" s="38" t="s">
+      <c r="H58" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="I58" s="38"/>
-      <c r="K58" s="45" t="b">
+      <c r="I58" s="26"/>
+      <c r="K58" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="L58" s="45" t="b">
+      <c r="L58" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="48">
+      <c r="A59" s="32">
         <v>45225</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="E59" s="26"/>
-      <c r="F59" s="32" t="s">
+      <c r="E59" s="33"/>
+      <c r="F59" s="20" t="s">
         <v>269</v>
       </c>
       <c r="G59" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="H59" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59" s="31" t="s">
+      <c r="H59" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="K59" s="45" t="b">
+      <c r="K59" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="L59" s="45" t="b">
+      <c r="L59" s="28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="48">
+      <c r="A60" s="32">
         <v>45225</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26" t="s">
+      <c r="E60" s="33"/>
+      <c r="F60" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G60" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="H60" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I60" s="31" t="s">
+      <c r="H60" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="K60" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" s="45" t="b">
+      <c r="K60" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" s="28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="50">
+      <c r="A61" s="19">
         <v>45225</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="E61" s="3"/>
+      <c r="F61" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="H61" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61" s="31" t="s">
+      <c r="G61" s="3"/>
+      <c r="H61" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="K61" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" s="45" t="b">
+      <c r="K61" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="30">
+        <v>45226</v>
+      </c>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="E62" s="50"/>
+      <c r="F62" s="52" t="s">
+        <v>350</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="H62" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="K62" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L62" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="30">
+        <v>45226</v>
+      </c>
+      <c r="B63" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="D63" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="H63" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="30">
+        <v>45227</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="D64" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="E64" s="50"/>
+      <c r="F64" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="G64" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="H64" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K64" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="30">
+        <v>45227</v>
+      </c>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="D65" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="G65" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="H65" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K65" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="30">
+        <v>45228</v>
+      </c>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="E66" s="50"/>
+      <c r="F66" s="52" t="s">
+        <v>351</v>
+      </c>
+      <c r="G66" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H66" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="K66" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="30">
+        <v>45228</v>
+      </c>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="D67" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E67" s="50"/>
+      <c r="F67" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="H67" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="K67" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="30">
+        <v>45228</v>
+      </c>
+      <c r="B68" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="E68" s="50"/>
+      <c r="F68" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="H68" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="49" t="s">
+        <v>347</v>
+      </c>
+      <c r="K68" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="30">
+        <v>45229</v>
+      </c>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="E69" s="50"/>
+      <c r="F69" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="G69" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="H69" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K69" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="30">
+        <v>45229</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="E70" s="50"/>
+      <c r="F70" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="G70" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="H70" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K70" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="30">
+        <v>45229</v>
+      </c>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="D71" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="E71" s="50"/>
+      <c r="F71" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="H71" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K71" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="30">
+        <v>45229</v>
+      </c>
+      <c r="B72" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="E72" s="50"/>
+      <c r="F72" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="G72" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="H72" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="30">
+        <v>45229</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="D73" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="E73" s="50"/>
+      <c r="F73" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="G73" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="H73" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K73" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="30">
+        <v>45229</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="E74" s="50"/>
+      <c r="F74" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="G74" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="H74" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="K74" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L74" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="30">
+        <v>45229</v>
+      </c>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="E75" s="50"/>
+      <c r="F75" s="52" t="s">
+        <v>342</v>
+      </c>
+      <c r="G75" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="H75" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="K75" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="30">
+        <v>45229</v>
+      </c>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="D76" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="E76" s="50"/>
+      <c r="F76" s="52" t="s">
+        <v>345</v>
+      </c>
+      <c r="G76" s="55" t="s">
+        <v>346</v>
+      </c>
+      <c r="H76" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="K76" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" s="28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3466,8 +4137,20 @@
     <hyperlink ref="F58" r:id="rId42" xr:uid="{3A1A5CB0-C904-4E4A-BEA4-6F1C07D84337}"/>
     <hyperlink ref="F59" r:id="rId43" xr:uid="{BEA94338-9CDC-497C-B373-4C799DF10124}"/>
     <hyperlink ref="F61" r:id="rId44" xr:uid="{332A70BD-C958-474F-AC8C-39328E15F6E1}"/>
+    <hyperlink ref="F62" r:id="rId45" xr:uid="{EDA6469B-9774-4B36-8361-E6C71E3B34E8}"/>
+    <hyperlink ref="F64" r:id="rId46" xr:uid="{36029645-F9EE-4224-BC7B-82EABD88CDB4}"/>
+    <hyperlink ref="F66" r:id="rId47" xr:uid="{D2877854-21CC-45B9-A68D-64DE2BFA4298}"/>
+    <hyperlink ref="F67" r:id="rId48" xr:uid="{1E653ABF-30D4-465E-B5A4-1CCB48A82C66}"/>
+    <hyperlink ref="F69" r:id="rId49" xr:uid="{6A52C755-CB01-49B9-8F13-92D7DBD58118}"/>
+    <hyperlink ref="F70" r:id="rId50" xr:uid="{5A4D9432-FA94-4DE6-949A-C1154B9D21CA}"/>
+    <hyperlink ref="F71" r:id="rId51" xr:uid="{DAE494D6-8685-4B27-BE92-BA43BDCD0B9F}"/>
+    <hyperlink ref="F72" r:id="rId52" xr:uid="{73644A2D-DA76-4DBB-9654-F918ED8BB2C8}"/>
+    <hyperlink ref="F73" r:id="rId53" xr:uid="{82278510-474E-4CD4-A99A-C8143A91BDE9}"/>
+    <hyperlink ref="F74" r:id="rId54" xr:uid="{5E00AA3D-F104-4A29-81CC-2C4846F2DF39}"/>
+    <hyperlink ref="F75" r:id="rId55" xr:uid="{151D2C99-B5BA-4801-B207-A7366450B9D6}"/>
+    <hyperlink ref="F76" r:id="rId56" xr:uid="{55FA7C87-1F28-4894-9155-862166860504}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId45"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId57"/>
 </worksheet>
 </file>